--- a/LASER_IMP_SINEL/TabelaNMTPLUS.xlsx
+++ b/LASER_IMP_SINEL/TabelaNMTPLUS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="24240" windowHeight="13095"/>
@@ -11,12 +11,12 @@
     <sheet name="List2" sheetId="2" r:id="rId2"/>
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>1~230V 50Hz</t>
   </si>
@@ -117,9 +117,6 @@
     <t>LOGO</t>
   </si>
   <si>
-    <t>imp.jpg</t>
-  </si>
-  <si>
     <t>PN</t>
   </si>
   <si>
@@ -145,13 +142,19 @@
   </si>
   <si>
     <t>grundfos</t>
+  </si>
+  <si>
+    <t>IMPPUMPS_NMT</t>
+  </si>
+  <si>
+    <t>IMPPUMPS_NMTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,7 +481,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -513,7 +515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,14 +690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -704,13 +705,14 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -747,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="3">
         <v>979523951</v>
       </c>
@@ -782,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="20">
         <v>979523841</v>
       </c>
@@ -823,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="20">
         <v>979523842</v>
       </c>
@@ -864,13 +866,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="20">
         <v>979523843</v>
       </c>
@@ -905,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="20">
         <v>979523844</v>
       </c>
@@ -946,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="20">
         <v>979523845</v>
       </c>
@@ -987,13 +989,13 @@
         <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="20">
         <v>979523846</v>
       </c>
@@ -1028,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="20">
         <v>979523847</v>
       </c>
@@ -1069,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="20">
         <v>979523848</v>
       </c>
@@ -1109,14 +1111,14 @@
       <c r="K10" s="19">
         <v>1</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>33</v>
+      <c r="L10" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M10" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="20">
         <v>979523849</v>
       </c>
@@ -1150,14 +1152,14 @@
       <c r="K11" s="19">
         <v>1</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>33</v>
+      <c r="L11" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M11" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="20">
         <v>979523850</v>
       </c>
@@ -1191,14 +1193,14 @@
       <c r="K12" s="19">
         <v>1</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>33</v>
+      <c r="L12" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M12" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="20">
         <v>979523851</v>
       </c>
@@ -1232,14 +1234,14 @@
       <c r="K13" s="19">
         <v>1</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>33</v>
+      <c r="L13" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="20">
         <v>979523852</v>
       </c>
@@ -1273,14 +1275,14 @@
       <c r="K14" s="19">
         <v>1</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>33</v>
+      <c r="L14" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M14" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="20">
         <v>979523853</v>
       </c>
@@ -1314,14 +1316,14 @@
       <c r="K15" s="19">
         <v>1</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>33</v>
+      <c r="L15" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="20">
         <v>979523854</v>
       </c>
@@ -1355,14 +1357,14 @@
       <c r="K16" s="19">
         <v>1</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>33</v>
+      <c r="L16" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M16" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="20">
         <v>979523855</v>
       </c>
@@ -1396,14 +1398,14 @@
       <c r="K17" s="19">
         <v>1</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>33</v>
+      <c r="L17" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M17" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="20">
         <v>979523856</v>
       </c>
@@ -1437,14 +1439,14 @@
       <c r="K18" s="19">
         <v>1</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>33</v>
+      <c r="L18" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="20">
         <v>979523857</v>
       </c>
@@ -1478,14 +1480,14 @@
       <c r="K19" s="19">
         <v>1</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>33</v>
+      <c r="L19" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>979523937</v>
       </c>
@@ -1519,14 +1521,14 @@
       <c r="K20" s="19">
         <v>1</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>33</v>
+      <c r="L20" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>979523938</v>
       </c>
@@ -1560,14 +1562,14 @@
       <c r="K21" s="19">
         <v>1</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>33</v>
+      <c r="L21" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M21" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>979523939</v>
       </c>
@@ -1601,14 +1603,14 @@
       <c r="K22" s="19">
         <v>1</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>33</v>
+      <c r="L22" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>979523940</v>
       </c>
@@ -1642,14 +1644,14 @@
       <c r="K23" s="19">
         <v>1</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>33</v>
+      <c r="L23" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>979523941</v>
       </c>
@@ -1683,14 +1685,14 @@
       <c r="K24" s="19">
         <v>1</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>33</v>
+      <c r="L24" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" s="21">
         <v>979523942</v>
       </c>
@@ -1724,8 +1726,8 @@
       <c r="K25" s="19">
         <v>1</v>
       </c>
-      <c r="L25" s="19" t="s">
-        <v>33</v>
+      <c r="L25" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>0</v>
@@ -1738,24 +1740,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LASER_IMP_SINEL/TabelaNMTPLUS.xlsx
+++ b/LASER_IMP_SINEL/TabelaNMTPLUS.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
